--- a/现金流量表/300917.xlsx
+++ b/现金流量表/300917.xlsx
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>63843593.43</v>
+        <v>57428638.29</v>
       </c>
       <c r="P2" t="n">
-        <v>307.13799234</v>
+        <v>94.5559004638</v>
       </c>
       <c r="Q2" t="n">
-        <v>546440337.4400001</v>
+        <v>902958387.25</v>
       </c>
       <c r="R2" t="n">
-        <v>2628.8086111404</v>
+        <v>1486.7154425051</v>
       </c>
       <c r="S2" t="n">
-        <v>281609931.71</v>
+        <v>519190776.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1354.7656765789</v>
+        <v>854.8444268618</v>
       </c>
       <c r="U2" t="n">
-        <v>-8347150.77</v>
+        <v>-15490.68</v>
       </c>
       <c r="V2" t="n">
-        <v>-40.1563726526</v>
+        <v>-0.0255053095</v>
       </c>
       <c r="W2" t="n">
-        <v>196396.33</v>
+        <v>126287.67</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9448211050999999</v>
+        <v>0.2079318735</v>
       </c>
       <c r="Y2" t="n">
-        <v>6817634.87</v>
+        <v>3080684.04</v>
       </c>
       <c r="Z2" t="n">
-        <v>32.7981959345</v>
+        <v>5.0723273635</v>
       </c>
       <c r="AA2" t="n">
-        <v>-34712600</v>
+        <v>3313796.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>-166.9949590885</v>
+        <v>5.4561451042</v>
       </c>
       <c r="AC2" t="n">
-        <v>20786615.47</v>
+        <v>60735118.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>47.2101636378</v>
+        <v>76.45199261960001</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300917.xlsx
+++ b/现金流量表/300917.xlsx
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>57428638.29</v>
+        <v>50196624.5</v>
       </c>
       <c r="P2" t="n">
-        <v>94.5559004638</v>
+        <v>145.8348089206</v>
       </c>
       <c r="Q2" t="n">
-        <v>902958387.25</v>
+        <v>718305576.5599999</v>
       </c>
       <c r="R2" t="n">
-        <v>1486.7154425051</v>
+        <v>2086.8725247496</v>
       </c>
       <c r="S2" t="n">
-        <v>519190776.5</v>
+        <v>382656613.39</v>
       </c>
       <c r="T2" t="n">
-        <v>854.8444268618</v>
+        <v>1111.7212492233</v>
       </c>
       <c r="U2" t="n">
-        <v>-15490.68</v>
+        <v>-10602293.6</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0255053095</v>
+        <v>-30.8025385507</v>
       </c>
       <c r="W2" t="n">
-        <v>126287.67</v>
+        <v>188571.22</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2079318735</v>
+        <v>0.54785054</v>
       </c>
       <c r="Y2" t="n">
-        <v>3080684.04</v>
+        <v>3825671.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.0723273635</v>
+        <v>11.1146135415</v>
       </c>
       <c r="AA2" t="n">
-        <v>3313796.2</v>
+        <v>-5176865.01</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.4561451042</v>
+        <v>-15.0401969667</v>
       </c>
       <c r="AC2" t="n">
-        <v>60735118.6</v>
+        <v>34420194.24</v>
       </c>
       <c r="AD2" t="n">
-        <v>76.45199261960001</v>
+        <v>65.5882569708</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300917.xlsx
+++ b/现金流量表/300917.xlsx
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>50196624.5</v>
+        <v>57428638.29</v>
       </c>
       <c r="P2" t="n">
-        <v>145.8348089206</v>
+        <v>94.5559004638</v>
       </c>
       <c r="Q2" t="n">
-        <v>718305576.5599999</v>
+        <v>902958387.25</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.8725247496</v>
+        <v>1486.7154425051</v>
       </c>
       <c r="S2" t="n">
-        <v>382656613.39</v>
+        <v>519190776.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1111.7212492233</v>
+        <v>854.8444268618</v>
       </c>
       <c r="U2" t="n">
-        <v>-10602293.6</v>
+        <v>-15490.68</v>
       </c>
       <c r="V2" t="n">
-        <v>-30.8025385507</v>
+        <v>-0.0255053095</v>
       </c>
       <c r="W2" t="n">
-        <v>188571.22</v>
+        <v>126287.67</v>
       </c>
       <c r="X2" t="n">
-        <v>0.54785054</v>
+        <v>0.2079318735</v>
       </c>
       <c r="Y2" t="n">
-        <v>3825671.57</v>
+        <v>3080684.04</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.1146135415</v>
+        <v>5.0723273635</v>
       </c>
       <c r="AA2" t="n">
-        <v>-5176865.01</v>
+        <v>3313796.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>-15.0401969667</v>
+        <v>5.4561451042</v>
       </c>
       <c r="AC2" t="n">
-        <v>34420194.24</v>
+        <v>60735118.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>65.5882569708</v>
+        <v>76.45199261960001</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300917.xlsx
+++ b/现金流量表/300917.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,57 +744,51 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>57428638.29</v>
+        <v>25037238.06</v>
       </c>
       <c r="P2" t="n">
-        <v>94.5559004638</v>
+        <v>105.6060243842</v>
       </c>
       <c r="Q2" t="n">
-        <v>902958387.25</v>
+        <v>467585804.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1486.7154425051</v>
+        <v>1972.2573935146</v>
       </c>
       <c r="S2" t="n">
-        <v>519190776.5</v>
+        <v>293373052.89</v>
       </c>
       <c r="T2" t="n">
-        <v>854.8444268618</v>
+        <v>1237.4352835136</v>
       </c>
       <c r="U2" t="n">
-        <v>-15490.68</v>
+        <v>-1841332.61</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0255053095</v>
-      </c>
-      <c r="W2" t="n">
-        <v>126287.67</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.2079318735</v>
-      </c>
+        <v>-7.7666640404</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>3080684.04</v>
+        <v>1858217.48</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.0723273635</v>
+        <v>7.8378837168</v>
       </c>
       <c r="AA2" t="n">
-        <v>3313796.2</v>
+        <v>498040</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.4561451042</v>
+        <v>2.1007119179</v>
       </c>
       <c r="AC2" t="n">
-        <v>60735118.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>76.45199261960001</v>
-      </c>
+        <v>23708153.21</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
